--- a/Whatsapp List_Main.xlsx
+++ b/Whatsapp List_Main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\Automation Adda\MODULES\III. KALIYUG\4. Whatsapp Web Automation\Bulk Whatsapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poorn\Downloads\Whatsapp Web Automation\0. Whatsapp Web Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7276255C-72ED-4E86-8A58-CA2C7599D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021820FE-BB72-4D55-BC1B-045A149D4863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>S.no</t>
   </si>
@@ -48,29 +48,164 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>+919205526726</t>
-  </si>
-  <si>
-    <t>Pranav Tulshyan</t>
-  </si>
-  <si>
-    <t>Pranav Pratik</t>
-  </si>
-  <si>
-    <t>+917464098001</t>
-  </si>
-  <si>
-    <t>+919334598431</t>
+    <t>G. Jagan</t>
+  </si>
+  <si>
+    <t>M. Akshay</t>
+  </si>
+  <si>
+    <t>Shaik Gadeer</t>
+  </si>
+  <si>
+    <t>K. Praveen kumar</t>
+  </si>
+  <si>
+    <t>K. Raju</t>
+  </si>
+  <si>
+    <t>B. Rama krishna</t>
+  </si>
+  <si>
+    <t>A. Ranga swarnt</t>
+  </si>
+  <si>
+    <t>G. Hemanth kumar</t>
+  </si>
+  <si>
+    <t>K. G. Bharath</t>
+  </si>
+  <si>
+    <t>A. Santhosh</t>
+  </si>
+  <si>
+    <t>S. Akhar Basha</t>
+  </si>
+  <si>
+    <t>Hari keshava</t>
+  </si>
+  <si>
+    <t>A. Balaji</t>
+  </si>
+  <si>
+    <t>S. John Jeevan babu</t>
+  </si>
+  <si>
+    <t>S. Bharathwaz</t>
+  </si>
+  <si>
+    <t>M. Boya kondayya</t>
+  </si>
+  <si>
+    <t>8. Bharath</t>
+  </si>
+  <si>
+    <t>Harshith</t>
+  </si>
+  <si>
+    <t>P. Naga chaithanya</t>
+  </si>
+  <si>
+    <t>Shiva charan</t>
+  </si>
+  <si>
+    <t>B. Viswa Naik</t>
+  </si>
+  <si>
+    <t>S.Anil kumar naik</t>
+  </si>
+  <si>
+    <t>Bhuvana Chandra</t>
+  </si>
+  <si>
+    <t>M. Vivekananda</t>
+  </si>
+  <si>
+    <t>M. Prajwal reddy</t>
+  </si>
+  <si>
+    <t>B. Harsha Vardhan</t>
+  </si>
+  <si>
+    <t>P. Nagendra reddy</t>
+  </si>
+  <si>
+    <t>A. Hem kumar</t>
+  </si>
+  <si>
+    <t>G. Arun kumar</t>
+  </si>
+  <si>
+    <t>T. Sushanth</t>
+  </si>
+  <si>
+    <t>Y.S.V. Lakshman</t>
+  </si>
+  <si>
+    <t>S. Md. Basha</t>
+  </si>
+  <si>
+    <t>M. Veera Sujith</t>
+  </si>
+  <si>
+    <t>Reddy Balakrishna</t>
+  </si>
+  <si>
+    <t>N. Rukesh Varma</t>
+  </si>
+  <si>
+    <t>K. Naveen</t>
+  </si>
+  <si>
+    <t>G. Prestly</t>
+  </si>
+  <si>
+    <t>B. Gireesh kumar</t>
+  </si>
+  <si>
+    <t>N.Jagadish</t>
+  </si>
+  <si>
+    <t>Vignesh Rajų</t>
+  </si>
+  <si>
+    <t>N. Hanumesh Naik</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>chethan kousik</t>
+  </si>
+  <si>
+    <t>Lokesh</t>
+  </si>
+  <si>
+    <t>Sai Revanth</t>
+  </si>
+  <si>
+    <t>Pardha Saradi</t>
+  </si>
+  <si>
+    <t>Balaiah</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Vishnu Vardhan Goud</t>
+  </si>
+  <si>
+    <t>yavaraj</t>
+  </si>
+  <si>
+    <t>Eswar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +221,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,20 +259,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,9 +573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -424,48 +586,576 @@
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6303751694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9618381594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="5">
+        <v>8688676030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9014072162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C6" s="5">
+        <v>9293071658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7207138847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8639434383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6304419181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6305641575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>9515979058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9390296419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6300181621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5">
+        <v>7093797089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8121883782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <v>9441829524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9121380597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5">
+        <v>9347398192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7702055656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6305336351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7915282339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7569023054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6301280114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5">
+        <v>9384987692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5">
+        <v>8464008151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5">
+        <v>9381616874</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5">
+        <v>9398614205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="5">
+        <v>9441086133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5">
+        <v>8639945677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="5">
+        <v>8639468447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7674859869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="5">
+        <v>9701743939</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="5">
+        <v>9100017310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="5">
+        <v>8247250838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="5">
+        <v>6303120762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="5">
+        <v>9390778783</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="5">
+        <v>7075408132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="5">
+        <v>9603857655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="5">
+        <v>9238467321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="5">
+        <v>9392177226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="5">
+        <v>9603838416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7075118781</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="5">
+        <v>8639468447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="5">
+        <v>7674363137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="5">
+        <v>9916837200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="5">
+        <v>6379113140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="5">
+        <v>7382240172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="5">
+        <v>9676179769</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="5">
+        <v>9494768388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="5">
+        <v>8500131002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="5">
+        <v>9052717481</v>
       </c>
     </row>
   </sheetData>
